--- a/Auto-Eval-ASI-A3-D1.xlsx
+++ b/Auto-Eval-ASI-A3-D1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jean\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tperr\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{057AD473-A6F7-4618-AA0B-C5E4D8F8E532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{562CC92B-15B5-4A14-823A-41A53ED30DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28058" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
     <definedName name="Notes">admin!$A$2:$A$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -791,11 +780,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="D1" s="1" t="s">
@@ -981,7 +970,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="1:19" ht="35.65">
+    <row r="7" spans="1:19" ht="36.6">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="15" t="s">
@@ -1024,7 +1013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="58.9">
+    <row r="8" spans="1:19" ht="60.6">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="15" t="s">
@@ -1067,7 +1056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="24">
+    <row r="9" spans="1:19" ht="24.6">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="15" t="s">
@@ -1110,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="47.25">
+    <row r="10" spans="1:19" ht="36.6">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="15" t="s">
@@ -1153,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="24">
+    <row r="11" spans="1:19" ht="24.6">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="15" t="s">
@@ -1196,7 +1185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="35.65">
+    <row r="12" spans="1:19" ht="24.6">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="15" t="s">
@@ -1233,10 +1222,10 @@
         <v>12</v>
       </c>
       <c r="O12" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="24.6">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="15" t="s">
@@ -1322,7 +1311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="35.65">
+    <row r="15" spans="1:19" ht="36.6">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15" t="s">
@@ -1365,7 +1354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="35.65">
+    <row r="16" spans="1:19" ht="36.6">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="15" t="s">
@@ -1408,7 +1397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="24">
+    <row r="17" spans="1:15" ht="24.6">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="15" t="s">
@@ -1451,7 +1440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="35.65">
+    <row r="18" spans="1:15" ht="36.6">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="15" t="s">
@@ -1494,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24">
+    <row r="19" spans="1:15" ht="24.6">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15" t="s">
@@ -1537,7 +1526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="24">
+    <row r="20" spans="1:15" ht="24.6">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15" t="s">
@@ -1580,7 +1569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="35.65">
+    <row r="21" spans="1:15" ht="24.6">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="15" t="s">
@@ -1623,7 +1612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="24">
+    <row r="22" spans="1:15" ht="24.6">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="15" t="s">
@@ -1666,7 +1655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="35.65">
+    <row r="23" spans="1:15" ht="36.6">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="15" t="s">
@@ -1709,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="35.65">
+    <row r="24" spans="1:15" ht="36.6">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15" t="s">
@@ -1752,7 +1741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="35.65">
+    <row r="25" spans="1:15" ht="36.6">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15" t="s">
@@ -1795,7 +1784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="35.65">
+    <row r="26" spans="1:15" ht="36.6">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="15" t="s">
@@ -1838,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="24">
+    <row r="27" spans="1:15" ht="24.6">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="15" t="s">
@@ -1878,10 +1867,10 @@
         <v>12</v>
       </c>
       <c r="O27" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="35.65">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="24.6">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="15" t="s">
@@ -1921,10 +1910,10 @@
         <v>12</v>
       </c>
       <c r="O28" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="24.6">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="15" t="s">
@@ -1964,10 +1953,10 @@
         <v>12</v>
       </c>
       <c r="O29" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="35.65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="36.6">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15" t="s">
@@ -2007,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="O30" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2050,10 +2039,10 @@
         <v>12</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="24.6">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="15" t="s">
@@ -2093,10 +2082,10 @@
         <v>12</v>
       </c>
       <c r="O32" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="24.6">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="15" t="s">
@@ -2139,7 +2128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="24">
+    <row r="34" spans="1:15" ht="24.6">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15" t="s">
@@ -2180,7 +2169,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="47.25">
+    <row r="35" spans="1:15" ht="36.6">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="15" t="s">
@@ -2220,7 +2209,7 @@
         <v>14</v>
       </c>
       <c r="O35" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2242,7 +2231,7 @@
       <c r="N36" s="9"/>
       <c r="O36" s="22"/>
     </row>
-    <row r="37" spans="1:15" ht="58.9">
+    <row r="37" spans="1:15" ht="60.6">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="15" t="s">
@@ -2285,7 +2274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="24">
+    <row r="38" spans="1:15" ht="24.6">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="15" t="s">
@@ -2328,7 +2317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="24">
+    <row r="39" spans="1:15" ht="24.6">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="15" t="s">
@@ -2371,7 +2360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="35.65">
+    <row r="40" spans="1:15" ht="36.6">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="15" t="s">
@@ -2414,7 +2403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="47.25">
+    <row r="41" spans="1:15" ht="48.6">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="15" t="s">
@@ -2457,7 +2446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="35.65">
+    <row r="42" spans="1:15" ht="36.6">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="15" t="s">
@@ -2500,7 +2489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="35.65">
+    <row r="43" spans="1:15" ht="36.6">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="15" t="s">
@@ -2543,7 +2532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="35.65">
+    <row r="44" spans="1:15" ht="36.6">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="15" t="s">
@@ -2583,10 +2572,10 @@
         <v>15</v>
       </c>
       <c r="O44" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="70.5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="72.599999999999994">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="15" t="s">
@@ -2626,10 +2615,10 @@
         <v>12</v>
       </c>
       <c r="O45" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="35.65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="36.6">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="15" t="s">
@@ -2669,10 +2658,10 @@
         <v>14</v>
       </c>
       <c r="O46" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="47.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="48.6">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="15" t="s">
@@ -2715,7 +2704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="35.65">
+    <row r="48" spans="1:15" ht="36.6">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="15" t="s">
@@ -2755,10 +2744,10 @@
         <v>12</v>
       </c>
       <c r="O48" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="35.65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="36.6">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="15" t="s">
@@ -2798,10 +2787,10 @@
         <v>12</v>
       </c>
       <c r="O49" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="35.65">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="36.6">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="15" t="s">
@@ -2841,10 +2830,10 @@
         <v>12</v>
       </c>
       <c r="O50" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="58.9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="60.6">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="15" t="s">
@@ -2884,10 +2873,10 @@
         <v>12</v>
       </c>
       <c r="O51" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="58.9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="48.6">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="15" t="s">
@@ -2925,10 +2914,10 @@
         <v>12</v>
       </c>
       <c r="O52" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="58.9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="60.6">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="15" t="s">
@@ -2966,10 +2955,10 @@
         <v>12</v>
       </c>
       <c r="O53" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="47.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="48.6">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="15" t="s">
@@ -3006,10 +2995,10 @@
         <v>12</v>
       </c>
       <c r="O54" s="24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="58.9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="60.6">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="15" t="s">
@@ -3063,7 +3052,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
